--- a/DL_input_2200.xlsx
+++ b/DL_input_2200.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -574,7 +574,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" sqref="A1:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DL_input_2200.xlsx
+++ b/DL_input_2200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72A670A-F21A-4E32-9071-907FA2E0BF71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E11580E-3A74-4454-89F8-0CA5AF746CE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>ID#</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>NDL</t>
   </si>
 </sst>
 </file>
@@ -616,8 +619,8 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1640,7 @@
         <v>14.6</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O20" s="8">
         <v>75</v>
@@ -1739,7 +1742,7 @@
         <v>13.76</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O22" s="8">
         <v>78</v>
@@ -2096,7 +2099,7 @@
         <v>10.3066666666667</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O29" s="8">
         <v>82</v>
@@ -2249,7 +2252,7 @@
         <v>16.008749999999999</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O32" s="8">
         <v>81</v>
